--- a/Data/EC/NIT-9010460727.xlsx
+++ b/Data/EC/NIT-9010460727.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6ED55015-F8F6-4B8F-A336-D419ABEB0BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C9A5005-B878-4AAC-AEDB-36ABAC94ECA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{640D563F-EEB9-4F99-907B-3F5627597F67}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{83B3D0CB-524C-4601-A83D-C2CD71F1779B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="49">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,27 +65,81 @@
     <t>CC</t>
   </si>
   <si>
+    <t>32905529</t>
+  </si>
+  <si>
+    <t>DORALBA PACHECO ALTAMAR</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
     <t>1143392494</t>
   </si>
   <si>
     <t>ROSARIO DAYANA SAYAS MUÑOZ</t>
   </si>
   <si>
+    <t>2402</t>
+  </si>
+  <si>
     <t>2401</t>
   </si>
   <si>
-    <t>2402</t>
-  </si>
-  <si>
     <t>1143343276</t>
   </si>
   <si>
     <t>MICHAEL ALBERTO PACHECO ALTAMAR</t>
   </si>
   <si>
-    <t>2403</t>
-  </si>
-  <si>
     <t>1047410932</t>
   </si>
   <si>
@@ -96,51 +150,6 @@
   </si>
   <si>
     <t>CARLOS MANUEL GUTIERREZ PEREIRA</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -184,7 +193,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -554,7 +563,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93EF25E9-386D-4CE6-9782-5DD0A285DEA6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E62BEC0-CCA2-9A4A-3A9B-B82E60560DE4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -905,32 +914,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{904F1024-4559-435C-AC89-EAD69DC013B1}">
-  <dimension ref="B2:J87"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4544C3D5-F80B-42FF-AF8F-5D025FA0B205}">
+  <dimension ref="B2:J108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -939,7 +948,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -950,7 +959,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -961,7 +970,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -972,10 +981,10 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -988,8 +997,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1004,15 +1013,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>9993600</v>
+        <v>18485120</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1020,27 +1029,27 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C13" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F13" s="5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1060,16 +1069,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1083,16 +1092,16 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>139200</v>
+        <v>436800</v>
       </c>
       <c r="G16" s="18">
-        <v>3480000</v>
+        <v>2500000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1106,39 +1115,39 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>139200</v>
+        <v>468000</v>
       </c>
       <c r="G17" s="18">
-        <v>3480000</v>
+        <v>2500000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F18" s="18">
-        <v>130000</v>
+        <v>468000</v>
       </c>
       <c r="G18" s="18">
-        <v>3250000</v>
+        <v>2500000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1149,111 +1158,111 @@
         <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>139200</v>
+        <v>468000</v>
       </c>
       <c r="G19" s="18">
-        <v>3480000</v>
+        <v>2500000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>260000</v>
+        <v>468000</v>
       </c>
       <c r="G20" s="18">
-        <v>6500000</v>
+        <v>2500000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>78000</v>
+        <v>468000</v>
       </c>
       <c r="G21" s="18">
-        <v>1950000</v>
+        <v>2500000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>130000</v>
+        <v>468000</v>
       </c>
       <c r="G22" s="18">
-        <v>3250000</v>
+        <v>2500000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>260000</v>
+        <v>468000</v>
       </c>
       <c r="G23" s="18">
-        <v>6500000</v>
+        <v>2500000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -1264,111 +1273,111 @@
         <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>139200</v>
+        <v>468000</v>
       </c>
       <c r="G24" s="18">
-        <v>3480000</v>
+        <v>2500000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>78000</v>
+        <v>468000</v>
       </c>
       <c r="G25" s="18">
-        <v>1950000</v>
+        <v>2500000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>78000</v>
+        <v>468000</v>
       </c>
       <c r="G26" s="18">
-        <v>1950000</v>
+        <v>2500000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>260000</v>
+        <v>468000</v>
       </c>
       <c r="G27" s="18">
-        <v>6500000</v>
+        <v>2500000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>130000</v>
+        <v>468000</v>
       </c>
       <c r="G28" s="18">
-        <v>3250000</v>
+        <v>2500000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
@@ -1379,102 +1388,102 @@
         <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>139200</v>
+        <v>468000</v>
       </c>
       <c r="G29" s="18">
-        <v>3480000</v>
+        <v>2500000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>78000</v>
+        <v>468000</v>
       </c>
       <c r="G30" s="18">
-        <v>1950000</v>
+        <v>2500000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>130000</v>
+        <v>468000</v>
       </c>
       <c r="G31" s="18">
-        <v>3250000</v>
+        <v>2500000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F32" s="18">
-        <v>260000</v>
+        <v>468000</v>
       </c>
       <c r="G32" s="18">
-        <v>6500000</v>
+        <v>2500000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F33" s="18">
-        <v>139200</v>
+        <v>129920</v>
       </c>
       <c r="G33" s="18">
         <v>3480000</v>
@@ -1483,64 +1492,64 @@
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F34" s="18">
-        <v>260000</v>
+        <v>139200</v>
       </c>
       <c r="G34" s="18">
-        <v>6500000</v>
+        <v>3480000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>23</v>
-      </c>
       <c r="F35" s="18">
-        <v>130000</v>
+        <v>139200</v>
       </c>
       <c r="G35" s="18">
-        <v>3250000</v>
+        <v>3480000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F36" s="18">
         <v>139200</v>
@@ -1552,110 +1561,110 @@
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F37" s="18">
-        <v>78000</v>
+        <v>139200</v>
       </c>
       <c r="G37" s="18">
-        <v>1950000</v>
+        <v>3480000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>24</v>
-      </c>
       <c r="F38" s="18">
-        <v>260000</v>
+        <v>139200</v>
       </c>
       <c r="G38" s="18">
-        <v>6500000</v>
+        <v>3480000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F39" s="18">
-        <v>78000</v>
+        <v>139200</v>
       </c>
       <c r="G39" s="18">
-        <v>1950000</v>
+        <v>3480000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F40" s="18">
-        <v>130000</v>
+        <v>139200</v>
       </c>
       <c r="G40" s="18">
-        <v>3250000</v>
+        <v>3480000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F41" s="18">
         <v>139200</v>
@@ -1667,41 +1676,41 @@
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F42" s="18">
-        <v>130000</v>
+        <v>139200</v>
       </c>
       <c r="G42" s="18">
-        <v>3250000</v>
+        <v>3480000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F43" s="18">
         <v>139200</v>
@@ -1713,87 +1722,87 @@
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F44" s="18">
-        <v>260000</v>
+        <v>139200</v>
       </c>
       <c r="G44" s="18">
-        <v>6500000</v>
+        <v>3480000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F45" s="18">
-        <v>78000</v>
+        <v>139200</v>
       </c>
       <c r="G45" s="18">
-        <v>1950000</v>
+        <v>3480000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="2:10">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F46" s="18">
-        <v>130000</v>
+        <v>139200</v>
       </c>
       <c r="G46" s="18">
-        <v>3250000</v>
+        <v>3480000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="2:10">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F47" s="18">
         <v>139200</v>
@@ -1805,87 +1814,87 @@
       <c r="I47" s="19"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="2:10">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E48" s="16" t="s">
         <v>26</v>
       </c>
       <c r="F48" s="18">
-        <v>78000</v>
+        <v>139200</v>
       </c>
       <c r="G48" s="18">
-        <v>1950000</v>
+        <v>3480000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="2:10">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F49" s="18">
-        <v>260000</v>
+        <v>139200</v>
       </c>
       <c r="G49" s="18">
-        <v>6500000</v>
+        <v>3480000</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="2:10">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F50" s="18">
-        <v>260000</v>
+        <v>139200</v>
       </c>
       <c r="G50" s="18">
-        <v>6500000</v>
+        <v>3480000</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="2:10">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F51" s="18">
         <v>139200</v>
@@ -1897,21 +1906,21 @@
       <c r="I51" s="19"/>
       <c r="J51" s="20"/>
     </row>
-    <row r="52" spans="2:10">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F52" s="18">
-        <v>130000</v>
+        <v>121333</v>
       </c>
       <c r="G52" s="18">
         <v>3250000</v>
@@ -1920,64 +1929,64 @@
       <c r="I52" s="19"/>
       <c r="J52" s="20"/>
     </row>
-    <row r="53" spans="2:10">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F53" s="18">
-        <v>78000</v>
+        <v>130000</v>
       </c>
       <c r="G53" s="18">
-        <v>1950000</v>
+        <v>3250000</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
       <c r="J53" s="20"/>
     </row>
-    <row r="54" spans="2:10">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F54" s="18">
-        <v>260000</v>
+        <v>130000</v>
       </c>
       <c r="G54" s="18">
-        <v>6500000</v>
+        <v>3250000</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
       <c r="J54" s="20"/>
     </row>
-    <row r="55" spans="2:10">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D55" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E55" s="16" t="s">
         <v>14</v>
-      </c>
-      <c r="E55" s="16" t="s">
-        <v>28</v>
       </c>
       <c r="F55" s="18">
         <v>130000</v>
@@ -1989,133 +1998,133 @@
       <c r="I55" s="19"/>
       <c r="J55" s="20"/>
     </row>
-    <row r="56" spans="2:10">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F56" s="18">
-        <v>78000</v>
+        <v>130000</v>
       </c>
       <c r="G56" s="18">
-        <v>1950000</v>
+        <v>3250000</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
       <c r="J56" s="20"/>
     </row>
-    <row r="57" spans="2:10">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F57" s="18">
-        <v>139200</v>
+        <v>130000</v>
       </c>
       <c r="G57" s="18">
-        <v>3480000</v>
+        <v>3250000</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
       <c r="J57" s="20"/>
     </row>
-    <row r="58" spans="2:10">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D58" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E58" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E58" s="16" t="s">
-        <v>29</v>
-      </c>
       <c r="F58" s="18">
-        <v>260000</v>
+        <v>130000</v>
       </c>
       <c r="G58" s="18">
-        <v>6500000</v>
+        <v>3250000</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
       <c r="J58" s="20"/>
     </row>
-    <row r="59" spans="2:10">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E59" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D59" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E59" s="16" t="s">
-        <v>29</v>
-      </c>
       <c r="F59" s="18">
-        <v>78000</v>
+        <v>130000</v>
       </c>
       <c r="G59" s="18">
-        <v>1950000</v>
+        <v>3250000</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
       <c r="J59" s="20"/>
     </row>
-    <row r="60" spans="2:10">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F60" s="18">
-        <v>139200</v>
+        <v>130000</v>
       </c>
       <c r="G60" s="18">
-        <v>3480000</v>
+        <v>3250000</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
       <c r="J60" s="20"/>
     </row>
-    <row r="61" spans="2:10">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F61" s="18">
         <v>130000</v>
@@ -2127,64 +2136,64 @@
       <c r="I61" s="19"/>
       <c r="J61" s="20"/>
     </row>
-    <row r="62" spans="2:10">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F62" s="18">
-        <v>78000</v>
+        <v>130000</v>
       </c>
       <c r="G62" s="18">
-        <v>1950000</v>
+        <v>3250000</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
       <c r="J62" s="20"/>
     </row>
-    <row r="63" spans="2:10">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F63" s="18">
-        <v>260000</v>
+        <v>130000</v>
       </c>
       <c r="G63" s="18">
-        <v>6500000</v>
+        <v>3250000</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
       <c r="J63" s="20"/>
     </row>
-    <row r="64" spans="2:10">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F64" s="18">
         <v>130000</v>
@@ -2196,64 +2205,64 @@
       <c r="I64" s="19"/>
       <c r="J64" s="20"/>
     </row>
-    <row r="65" spans="2:10">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F65" s="18">
-        <v>139200</v>
+        <v>130000</v>
       </c>
       <c r="G65" s="18">
-        <v>3480000</v>
+        <v>3250000</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
       <c r="J65" s="20"/>
     </row>
-    <row r="66" spans="2:10">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F66" s="18">
-        <v>139200</v>
+        <v>130000</v>
       </c>
       <c r="G66" s="18">
-        <v>3480000</v>
+        <v>3250000</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
       <c r="J66" s="20"/>
     </row>
-    <row r="67" spans="2:10">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F67" s="18">
         <v>130000</v>
@@ -2265,110 +2274,110 @@
       <c r="I67" s="19"/>
       <c r="J67" s="20"/>
     </row>
-    <row r="68" spans="2:10">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F68" s="18">
-        <v>260000</v>
+        <v>130000</v>
       </c>
       <c r="G68" s="18">
-        <v>6500000</v>
+        <v>3250000</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
       <c r="J68" s="20"/>
     </row>
-    <row r="69" spans="2:10">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F69" s="18">
-        <v>78000</v>
+        <v>242667</v>
       </c>
       <c r="G69" s="18">
-        <v>1950000</v>
+        <v>6500000</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
       <c r="J69" s="20"/>
     </row>
-    <row r="70" spans="2:10">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F70" s="18">
-        <v>130000</v>
+        <v>260000</v>
       </c>
       <c r="G70" s="18">
-        <v>3250000</v>
+        <v>6500000</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
       <c r="J70" s="20"/>
     </row>
-    <row r="71" spans="2:10">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F71" s="18">
-        <v>139200</v>
+        <v>260000</v>
       </c>
       <c r="G71" s="18">
-        <v>3480000</v>
+        <v>6500000</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
       <c r="J71" s="20"/>
     </row>
-    <row r="72" spans="2:10">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F72" s="18">
         <v>260000</v>
@@ -2380,87 +2389,87 @@
       <c r="I72" s="19"/>
       <c r="J72" s="20"/>
     </row>
-    <row r="73" spans="2:10">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B73" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F73" s="18">
-        <v>78000</v>
+        <v>260000</v>
       </c>
       <c r="G73" s="18">
-        <v>1950000</v>
+        <v>6500000</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
       <c r="J73" s="20"/>
     </row>
-    <row r="74" spans="2:10">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="F74" s="18">
-        <v>78000</v>
+        <v>260000</v>
       </c>
       <c r="G74" s="18">
-        <v>1950000</v>
+        <v>6500000</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
       <c r="J74" s="20"/>
     </row>
-    <row r="75" spans="2:10">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B75" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F75" s="18">
-        <v>139200</v>
+        <v>260000</v>
       </c>
       <c r="G75" s="18">
-        <v>3480000</v>
+        <v>6500000</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
       <c r="J75" s="20"/>
     </row>
-    <row r="76" spans="2:10">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B76" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F76" s="18">
         <v>260000</v>
@@ -2472,41 +2481,41 @@
       <c r="I76" s="19"/>
       <c r="J76" s="20"/>
     </row>
-    <row r="77" spans="2:10">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B77" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F77" s="18">
-        <v>130000</v>
+        <v>260000</v>
       </c>
       <c r="G77" s="18">
-        <v>3250000</v>
+        <v>6500000</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
       <c r="J77" s="20"/>
     </row>
-    <row r="78" spans="2:10">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B78" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="F78" s="18">
         <v>260000</v>
@@ -2518,103 +2527,586 @@
       <c r="I78" s="19"/>
       <c r="J78" s="20"/>
     </row>
-    <row r="79" spans="2:10">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B79" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F79" s="18">
-        <v>78000</v>
+        <v>260000</v>
       </c>
       <c r="G79" s="18">
-        <v>1950000</v>
+        <v>6500000</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
       <c r="J79" s="20"/>
     </row>
-    <row r="80" spans="2:10">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B80" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="F80" s="18">
-        <v>139200</v>
+        <v>260000</v>
       </c>
       <c r="G80" s="18">
-        <v>3480000</v>
+        <v>6500000</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
       <c r="J80" s="20"/>
     </row>
-    <row r="81" spans="2:10">
-      <c r="B81" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C81" s="22" t="s">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B81" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D81" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E81" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F81" s="18">
+        <v>260000</v>
+      </c>
+      <c r="G81" s="18">
+        <v>6500000</v>
+      </c>
+      <c r="H81" s="19"/>
+      <c r="I81" s="19"/>
+      <c r="J81" s="20"/>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B82" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D82" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E82" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F82" s="18">
+        <v>260000</v>
+      </c>
+      <c r="G82" s="18">
+        <v>6500000</v>
+      </c>
+      <c r="H82" s="19"/>
+      <c r="I82" s="19"/>
+      <c r="J82" s="20"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B83" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D83" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E83" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F83" s="18">
+        <v>260000</v>
+      </c>
+      <c r="G83" s="18">
+        <v>6500000</v>
+      </c>
+      <c r="H83" s="19"/>
+      <c r="I83" s="19"/>
+      <c r="J83" s="20"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B84" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D84" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E84" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F84" s="18">
+        <v>260000</v>
+      </c>
+      <c r="G84" s="18">
+        <v>6500000</v>
+      </c>
+      <c r="H84" s="19"/>
+      <c r="I84" s="19"/>
+      <c r="J84" s="20"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B85" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D85" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E85" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F85" s="18">
+        <v>260000</v>
+      </c>
+      <c r="G85" s="18">
+        <v>6500000</v>
+      </c>
+      <c r="H85" s="19"/>
+      <c r="I85" s="19"/>
+      <c r="J85" s="20"/>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B86" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D86" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E86" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86" s="18">
+        <v>72800</v>
+      </c>
+      <c r="G86" s="18">
+        <v>1950000</v>
+      </c>
+      <c r="H86" s="19"/>
+      <c r="I86" s="19"/>
+      <c r="J86" s="20"/>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B87" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D87" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E87" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F87" s="18">
+        <v>78000</v>
+      </c>
+      <c r="G87" s="18">
+        <v>1950000</v>
+      </c>
+      <c r="H87" s="19"/>
+      <c r="I87" s="19"/>
+      <c r="J87" s="20"/>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B88" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D88" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E88" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D81" s="23" t="s">
+      <c r="F88" s="18">
+        <v>78000</v>
+      </c>
+      <c r="G88" s="18">
+        <v>1950000</v>
+      </c>
+      <c r="H88" s="19"/>
+      <c r="I88" s="19"/>
+      <c r="J88" s="20"/>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B89" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D89" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E89" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E81" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="F81" s="24">
-        <v>130000</v>
-      </c>
-      <c r="G81" s="24">
-        <v>3250000</v>
-      </c>
-      <c r="H81" s="25"/>
-      <c r="I81" s="25"/>
-      <c r="J81" s="26"/>
-    </row>
-    <row r="86" spans="2:10">
-      <c r="B86" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="C86" s="32"/>
-      <c r="H86" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
-    </row>
-    <row r="87" spans="2:10">
-      <c r="B87" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="C87" s="32"/>
-      <c r="H87" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I87" s="1"/>
-      <c r="J87" s="1"/>
+      <c r="F89" s="18">
+        <v>78000</v>
+      </c>
+      <c r="G89" s="18">
+        <v>1950000</v>
+      </c>
+      <c r="H89" s="19"/>
+      <c r="I89" s="19"/>
+      <c r="J89" s="20"/>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B90" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D90" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E90" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F90" s="18">
+        <v>78000</v>
+      </c>
+      <c r="G90" s="18">
+        <v>1950000</v>
+      </c>
+      <c r="H90" s="19"/>
+      <c r="I90" s="19"/>
+      <c r="J90" s="20"/>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B91" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D91" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E91" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F91" s="18">
+        <v>78000</v>
+      </c>
+      <c r="G91" s="18">
+        <v>1950000</v>
+      </c>
+      <c r="H91" s="19"/>
+      <c r="I91" s="19"/>
+      <c r="J91" s="20"/>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B92" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D92" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E92" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F92" s="18">
+        <v>78000</v>
+      </c>
+      <c r="G92" s="18">
+        <v>1950000</v>
+      </c>
+      <c r="H92" s="19"/>
+      <c r="I92" s="19"/>
+      <c r="J92" s="20"/>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B93" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D93" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E93" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F93" s="18">
+        <v>78000</v>
+      </c>
+      <c r="G93" s="18">
+        <v>1950000</v>
+      </c>
+      <c r="H93" s="19"/>
+      <c r="I93" s="19"/>
+      <c r="J93" s="20"/>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B94" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D94" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E94" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F94" s="18">
+        <v>78000</v>
+      </c>
+      <c r="G94" s="18">
+        <v>1950000</v>
+      </c>
+      <c r="H94" s="19"/>
+      <c r="I94" s="19"/>
+      <c r="J94" s="20"/>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B95" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D95" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E95" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F95" s="18">
+        <v>78000</v>
+      </c>
+      <c r="G95" s="18">
+        <v>1950000</v>
+      </c>
+      <c r="H95" s="19"/>
+      <c r="I95" s="19"/>
+      <c r="J95" s="20"/>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B96" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D96" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E96" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F96" s="18">
+        <v>78000</v>
+      </c>
+      <c r="G96" s="18">
+        <v>1950000</v>
+      </c>
+      <c r="H96" s="19"/>
+      <c r="I96" s="19"/>
+      <c r="J96" s="20"/>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B97" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D97" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E97" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F97" s="18">
+        <v>78000</v>
+      </c>
+      <c r="G97" s="18">
+        <v>1950000</v>
+      </c>
+      <c r="H97" s="19"/>
+      <c r="I97" s="19"/>
+      <c r="J97" s="20"/>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B98" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D98" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E98" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F98" s="18">
+        <v>78000</v>
+      </c>
+      <c r="G98" s="18">
+        <v>1950000</v>
+      </c>
+      <c r="H98" s="19"/>
+      <c r="I98" s="19"/>
+      <c r="J98" s="20"/>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B99" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D99" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E99" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F99" s="18">
+        <v>78000</v>
+      </c>
+      <c r="G99" s="18">
+        <v>1950000</v>
+      </c>
+      <c r="H99" s="19"/>
+      <c r="I99" s="19"/>
+      <c r="J99" s="20"/>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B100" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D100" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E100" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F100" s="18">
+        <v>78000</v>
+      </c>
+      <c r="G100" s="18">
+        <v>1950000</v>
+      </c>
+      <c r="H100" s="19"/>
+      <c r="I100" s="19"/>
+      <c r="J100" s="20"/>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B101" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D101" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E101" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F101" s="18">
+        <v>78000</v>
+      </c>
+      <c r="G101" s="18">
+        <v>1950000</v>
+      </c>
+      <c r="H101" s="19"/>
+      <c r="I101" s="19"/>
+      <c r="J101" s="20"/>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B102" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D102" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E102" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F102" s="24">
+        <v>78000</v>
+      </c>
+      <c r="G102" s="24">
+        <v>1950000</v>
+      </c>
+      <c r="H102" s="25"/>
+      <c r="I102" s="25"/>
+      <c r="J102" s="26"/>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B107" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C107" s="32"/>
+      <c r="H107" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" s="1"/>
+      <c r="J107" s="1"/>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B108" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C108" s="32"/>
+      <c r="H108" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I108" s="1"/>
+      <c r="J108" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="H87:J87"/>
-    <mergeCell ref="H86:J86"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="H108:J108"/>
+    <mergeCell ref="H107:J107"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9010460727.xlsx
+++ b/Data/EC/NIT-9010460727.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C9A5005-B878-4AAC-AEDB-36ABAC94ECA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDE79E35-379F-4950-A4A8-648AC5E055CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{83B3D0CB-524C-4601-A83D-C2CD71F1779B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A16C2D4D-3773-4D89-AC6F-DDD20A78F457}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="47">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,91 +65,85 @@
     <t>CC</t>
   </si>
   <si>
-    <t>32905529</t>
-  </si>
-  <si>
-    <t>DORALBA PACHECO ALTAMAR</t>
+    <t>1143392494</t>
+  </si>
+  <si>
+    <t>ROSARIO DAYANA SAYAS MUÑOZ</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>1143343276</t>
+  </si>
+  <si>
+    <t>MICHAEL ALBERTO PACHECO ALTAMAR</t>
+  </si>
+  <si>
+    <t>1047410932</t>
+  </si>
+  <si>
+    <t>WILLIAM RAFAEL PEREZ SALCEDO</t>
+  </si>
+  <si>
+    <t>1143410222</t>
+  </si>
+  <si>
+    <t>CARLOS MANUEL GUTIERREZ PEREIRA</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
   </si>
   <si>
     <t>2507</t>
-  </si>
-  <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>1143392494</t>
-  </si>
-  <si>
-    <t>ROSARIO DAYANA SAYAS MUÑOZ</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>1143343276</t>
-  </si>
-  <si>
-    <t>MICHAEL ALBERTO PACHECO ALTAMAR</t>
-  </si>
-  <si>
-    <t>1047410932</t>
-  </si>
-  <si>
-    <t>WILLIAM RAFAEL PEREZ SALCEDO</t>
-  </si>
-  <si>
-    <t>1143410222</t>
-  </si>
-  <si>
-    <t>CARLOS MANUEL GUTIERREZ PEREIRA</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -193,7 +187,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,7 +242,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -261,9 +257,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -463,23 +457,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -507,10 +501,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -563,7 +557,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E62BEC0-CCA2-9A4A-3A9B-B82E60560DE4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{652D4F49-897D-0798-74DB-C13C12A47144}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -914,32 +908,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4544C3D5-F80B-42FF-AF8F-5D025FA0B205}">
-  <dimension ref="B2:J108"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5020C28-1028-49C8-8E18-B5E81BFA39E0}">
+  <dimension ref="B2:J91"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -948,7 +942,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -959,7 +953,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -970,7 +964,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -981,10 +975,10 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="9" customHeight="1"/>
+    <row r="7" spans="2:10">
       <c r="B7" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -997,8 +991,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
+    <row r="9" spans="2:10">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1013,15 +1007,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
+    <row r="11" spans="2:10">
       <c r="B11" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>18485120</v>
+        <v>10560320</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1029,17 +1023,17 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
+    <row r="13" spans="2:10">
       <c r="B13" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C13" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F13" s="5">
         <v>19</v>
@@ -1049,7 +1043,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1069,16 +1063,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I15" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="J15" s="14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="2:10">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1092,16 +1086,16 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>436800</v>
+        <v>139200</v>
       </c>
       <c r="G16" s="18">
-        <v>2500000</v>
+        <v>3480000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1115,16 +1109,16 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>468000</v>
+        <v>139200</v>
       </c>
       <c r="G17" s="18">
-        <v>2500000</v>
+        <v>3480000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1138,85 +1132,85 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>468000</v>
+        <v>139200</v>
       </c>
       <c r="G18" s="18">
-        <v>2500000</v>
+        <v>3480000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F19" s="18">
-        <v>468000</v>
+        <v>130000</v>
       </c>
       <c r="G19" s="18">
-        <v>2500000</v>
+        <v>3250000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F20" s="18">
-        <v>468000</v>
+        <v>260000</v>
       </c>
       <c r="G20" s="18">
-        <v>2500000</v>
+        <v>6500000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F21" s="18">
-        <v>468000</v>
+        <v>78000</v>
       </c>
       <c r="G21" s="18">
-        <v>2500000</v>
+        <v>1950000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:10">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1227,88 +1221,88 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F22" s="18">
-        <v>468000</v>
+        <v>139200</v>
       </c>
       <c r="G22" s="18">
-        <v>2500000</v>
+        <v>3480000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F23" s="18">
-        <v>468000</v>
+        <v>130000</v>
       </c>
       <c r="G23" s="18">
-        <v>2500000</v>
+        <v>3250000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:10">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F24" s="18">
-        <v>468000</v>
+        <v>260000</v>
       </c>
       <c r="G24" s="18">
-        <v>2500000</v>
+        <v>6500000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:10">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>468000</v>
+        <v>78000</v>
       </c>
       <c r="G25" s="18">
-        <v>2500000</v>
+        <v>1950000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:10">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
@@ -1322,85 +1316,85 @@
         <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>468000</v>
+        <v>139200</v>
       </c>
       <c r="G26" s="18">
-        <v>2500000</v>
+        <v>3480000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:10">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F27" s="18">
-        <v>468000</v>
+        <v>130000</v>
       </c>
       <c r="G27" s="18">
-        <v>2500000</v>
+        <v>3250000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:10">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F28" s="18">
-        <v>468000</v>
+        <v>260000</v>
       </c>
       <c r="G28" s="18">
-        <v>2500000</v>
+        <v>6500000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:10">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F29" s="18">
-        <v>468000</v>
+        <v>78000</v>
       </c>
       <c r="G29" s="18">
-        <v>2500000</v>
+        <v>1950000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:10">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
@@ -1411,99 +1405,99 @@
         <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F30" s="18">
-        <v>468000</v>
+        <v>139200</v>
       </c>
       <c r="G30" s="18">
-        <v>2500000</v>
+        <v>3480000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:10">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F31" s="18">
-        <v>468000</v>
+        <v>130000</v>
       </c>
       <c r="G31" s="18">
-        <v>2500000</v>
+        <v>3250000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:10">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F32" s="18">
-        <v>468000</v>
+        <v>260000</v>
       </c>
       <c r="G32" s="18">
-        <v>2500000</v>
+        <v>6500000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:10">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F33" s="18">
-        <v>129920</v>
+        <v>78000</v>
       </c>
       <c r="G33" s="18">
-        <v>3480000</v>
+        <v>1950000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:10">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F34" s="18">
         <v>139200</v>
@@ -1515,87 +1509,87 @@
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:10">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F35" s="18">
-        <v>139200</v>
+        <v>130000</v>
       </c>
       <c r="G35" s="18">
-        <v>3480000</v>
+        <v>3250000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:10">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F36" s="18">
-        <v>139200</v>
+        <v>260000</v>
       </c>
       <c r="G36" s="18">
-        <v>3480000</v>
+        <v>6500000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:10">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F37" s="18">
-        <v>139200</v>
+        <v>78000</v>
       </c>
       <c r="G37" s="18">
-        <v>3480000</v>
+        <v>1950000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:10">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F38" s="18">
         <v>139200</v>
@@ -1607,87 +1601,87 @@
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:10">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F39" s="18">
-        <v>139200</v>
+        <v>130000</v>
       </c>
       <c r="G39" s="18">
-        <v>3480000</v>
+        <v>3250000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:10">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F40" s="18">
-        <v>139200</v>
+        <v>260000</v>
       </c>
       <c r="G40" s="18">
-        <v>3480000</v>
+        <v>6500000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:10">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F41" s="18">
-        <v>139200</v>
+        <v>78000</v>
       </c>
       <c r="G41" s="18">
-        <v>3480000</v>
+        <v>1950000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:10">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F42" s="18">
         <v>139200</v>
@@ -1699,87 +1693,87 @@
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:10">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F43" s="18">
-        <v>139200</v>
+        <v>130000</v>
       </c>
       <c r="G43" s="18">
-        <v>3480000</v>
+        <v>3250000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:10">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F44" s="18">
-        <v>139200</v>
+        <v>260000</v>
       </c>
       <c r="G44" s="18">
-        <v>3480000</v>
+        <v>6500000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:10">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F45" s="18">
-        <v>139200</v>
+        <v>78000</v>
       </c>
       <c r="G45" s="18">
-        <v>3480000</v>
+        <v>1950000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:10">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F46" s="18">
         <v>139200</v>
@@ -1791,87 +1785,87 @@
       <c r="I46" s="19"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:10">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F47" s="18">
-        <v>139200</v>
+        <v>130000</v>
       </c>
       <c r="G47" s="18">
-        <v>3480000</v>
+        <v>3250000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:10">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E48" s="16" t="s">
         <v>26</v>
       </c>
       <c r="F48" s="18">
-        <v>139200</v>
+        <v>260000</v>
       </c>
       <c r="G48" s="18">
-        <v>3480000</v>
+        <v>6500000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:10">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F49" s="18">
-        <v>139200</v>
+        <v>78000</v>
       </c>
       <c r="G49" s="18">
-        <v>3480000</v>
+        <v>1950000</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:10">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F50" s="18">
         <v>139200</v>
@@ -1883,110 +1877,110 @@
       <c r="I50" s="19"/>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:10">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F51" s="18">
-        <v>139200</v>
+        <v>130000</v>
       </c>
       <c r="G51" s="18">
-        <v>3480000</v>
+        <v>3250000</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
       <c r="J51" s="20"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:10">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F52" s="18">
-        <v>121333</v>
+        <v>260000</v>
       </c>
       <c r="G52" s="18">
-        <v>3250000</v>
+        <v>6500000</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
       <c r="J52" s="20"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:10">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F53" s="18">
-        <v>130000</v>
+        <v>78000</v>
       </c>
       <c r="G53" s="18">
-        <v>3250000</v>
+        <v>1950000</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
       <c r="J53" s="20"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:10">
       <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F54" s="18">
-        <v>130000</v>
+        <v>139200</v>
       </c>
       <c r="G54" s="18">
-        <v>3250000</v>
+        <v>3480000</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
       <c r="J54" s="20"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:10">
       <c r="B55" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F55" s="18">
         <v>130000</v>
@@ -1998,87 +1992,87 @@
       <c r="I55" s="19"/>
       <c r="J55" s="20"/>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:10">
       <c r="B56" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F56" s="18">
-        <v>130000</v>
+        <v>260000</v>
       </c>
       <c r="G56" s="18">
-        <v>3250000</v>
+        <v>6500000</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
       <c r="J56" s="20"/>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:10">
       <c r="B57" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F57" s="18">
-        <v>130000</v>
+        <v>78000</v>
       </c>
       <c r="G57" s="18">
-        <v>3250000</v>
+        <v>1950000</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
       <c r="J57" s="20"/>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:10">
       <c r="B58" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F58" s="18">
-        <v>130000</v>
+        <v>139200</v>
       </c>
       <c r="G58" s="18">
-        <v>3250000</v>
+        <v>3480000</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
       <c r="J58" s="20"/>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:10">
       <c r="B59" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F59" s="18">
         <v>130000</v>
@@ -2090,87 +2084,87 @@
       <c r="I59" s="19"/>
       <c r="J59" s="20"/>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:10">
       <c r="B60" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F60" s="18">
-        <v>130000</v>
+        <v>260000</v>
       </c>
       <c r="G60" s="18">
-        <v>3250000</v>
+        <v>6500000</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
       <c r="J60" s="20"/>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:10">
       <c r="B61" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F61" s="18">
-        <v>130000</v>
+        <v>78000</v>
       </c>
       <c r="G61" s="18">
-        <v>3250000</v>
+        <v>1950000</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
       <c r="J61" s="20"/>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:10">
       <c r="B62" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F62" s="18">
-        <v>130000</v>
+        <v>139200</v>
       </c>
       <c r="G62" s="18">
-        <v>3250000</v>
+        <v>3480000</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
       <c r="J62" s="20"/>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:10">
       <c r="B63" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F63" s="18">
         <v>130000</v>
@@ -2182,87 +2176,87 @@
       <c r="I63" s="19"/>
       <c r="J63" s="20"/>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:10">
       <c r="B64" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F64" s="18">
-        <v>130000</v>
+        <v>260000</v>
       </c>
       <c r="G64" s="18">
-        <v>3250000</v>
+        <v>6500000</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
       <c r="J64" s="20"/>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:10">
       <c r="B65" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F65" s="18">
-        <v>130000</v>
+        <v>78000</v>
       </c>
       <c r="G65" s="18">
-        <v>3250000</v>
+        <v>1950000</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
       <c r="J65" s="20"/>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:10">
       <c r="B66" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F66" s="18">
-        <v>130000</v>
+        <v>139200</v>
       </c>
       <c r="G66" s="18">
-        <v>3250000</v>
+        <v>3480000</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
       <c r="J66" s="20"/>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:10">
       <c r="B67" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F67" s="18">
         <v>130000</v>
@@ -2274,110 +2268,110 @@
       <c r="I67" s="19"/>
       <c r="J67" s="20"/>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:10">
       <c r="B68" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F68" s="18">
-        <v>130000</v>
+        <v>260000</v>
       </c>
       <c r="G68" s="18">
-        <v>3250000</v>
+        <v>6500000</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
       <c r="J68" s="20"/>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:10">
       <c r="B69" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F69" s="18">
-        <v>242667</v>
+        <v>78000</v>
       </c>
       <c r="G69" s="18">
-        <v>6500000</v>
+        <v>1950000</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
       <c r="J69" s="20"/>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:10">
       <c r="B70" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F70" s="18">
-        <v>260000</v>
+        <v>139200</v>
       </c>
       <c r="G70" s="18">
-        <v>6500000</v>
+        <v>3480000</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
       <c r="J70" s="20"/>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:10">
       <c r="B71" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="F71" s="18">
-        <v>260000</v>
+        <v>130000</v>
       </c>
       <c r="G71" s="18">
-        <v>6500000</v>
+        <v>3250000</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
       <c r="J71" s="20"/>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:10">
       <c r="B72" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F72" s="18">
         <v>260000</v>
@@ -2389,87 +2383,87 @@
       <c r="I72" s="19"/>
       <c r="J72" s="20"/>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:10">
       <c r="B73" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="F73" s="18">
-        <v>260000</v>
+        <v>78000</v>
       </c>
       <c r="G73" s="18">
-        <v>6500000</v>
+        <v>1950000</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
       <c r="J73" s="20"/>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:10">
       <c r="B74" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="F74" s="18">
-        <v>260000</v>
+        <v>139200</v>
       </c>
       <c r="G74" s="18">
-        <v>6500000</v>
+        <v>3480000</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
       <c r="J74" s="20"/>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:10">
       <c r="B75" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="F75" s="18">
-        <v>260000</v>
+        <v>130000</v>
       </c>
       <c r="G75" s="18">
-        <v>6500000</v>
+        <v>3250000</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
       <c r="J75" s="20"/>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:10">
       <c r="B76" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="F76" s="18">
         <v>260000</v>
@@ -2481,87 +2475,87 @@
       <c r="I76" s="19"/>
       <c r="J76" s="20"/>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:10">
       <c r="B77" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="F77" s="18">
-        <v>260000</v>
+        <v>78000</v>
       </c>
       <c r="G77" s="18">
-        <v>6500000</v>
+        <v>1950000</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
       <c r="J77" s="20"/>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:10">
       <c r="B78" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D78" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E78" s="16" t="s">
-        <v>20</v>
-      </c>
       <c r="F78" s="18">
-        <v>260000</v>
+        <v>139200</v>
       </c>
       <c r="G78" s="18">
-        <v>6500000</v>
+        <v>3480000</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
       <c r="J78" s="20"/>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:10">
       <c r="B79" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E79" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D79" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E79" s="16" t="s">
-        <v>21</v>
-      </c>
       <c r="F79" s="18">
-        <v>260000</v>
+        <v>130000</v>
       </c>
       <c r="G79" s="18">
-        <v>6500000</v>
+        <v>3250000</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
       <c r="J79" s="20"/>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:10">
       <c r="B80" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D80" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E80" s="16" t="s">
         <v>34</v>
-      </c>
-      <c r="D80" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E80" s="16" t="s">
-        <v>22</v>
       </c>
       <c r="F80" s="18">
         <v>260000</v>
@@ -2573,90 +2567,90 @@
       <c r="I80" s="19"/>
       <c r="J80" s="20"/>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:10">
       <c r="B81" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D81" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E81" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D81" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E81" s="16" t="s">
-        <v>23</v>
-      </c>
       <c r="F81" s="18">
-        <v>260000</v>
+        <v>78000</v>
       </c>
       <c r="G81" s="18">
-        <v>6500000</v>
+        <v>1950000</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
       <c r="J81" s="20"/>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:10">
       <c r="B82" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D82" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E82" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E82" s="16" t="s">
-        <v>24</v>
-      </c>
       <c r="F82" s="18">
-        <v>260000</v>
+        <v>129920</v>
       </c>
       <c r="G82" s="18">
-        <v>6500000</v>
+        <v>3480000</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
       <c r="J82" s="20"/>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:10">
       <c r="B83" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="D83" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E83" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E83" s="16" t="s">
-        <v>25</v>
-      </c>
       <c r="F83" s="18">
-        <v>260000</v>
+        <v>121333</v>
       </c>
       <c r="G83" s="18">
-        <v>6500000</v>
+        <v>3250000</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
       <c r="J83" s="20"/>
     </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:10">
       <c r="B84" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D84" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E84" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E84" s="16" t="s">
-        <v>26</v>
-      </c>
       <c r="F84" s="18">
-        <v>260000</v>
+        <v>242667</v>
       </c>
       <c r="G84" s="18">
         <v>6500000</v>
@@ -2665,448 +2659,57 @@
       <c r="I84" s="19"/>
       <c r="J84" s="20"/>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B85" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C85" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D85" s="17" t="s">
+    <row r="85" spans="2:10">
+      <c r="B85" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D85" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E85" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E85" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F85" s="18">
-        <v>260000</v>
-      </c>
-      <c r="G85" s="18">
-        <v>6500000</v>
-      </c>
-      <c r="H85" s="19"/>
-      <c r="I85" s="19"/>
-      <c r="J85" s="20"/>
-    </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B86" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C86" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D86" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E86" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F86" s="18">
+      <c r="F85" s="24">
         <v>72800</v>
       </c>
-      <c r="G86" s="18">
+      <c r="G85" s="24">
         <v>1950000</v>
       </c>
-      <c r="H86" s="19"/>
-      <c r="I86" s="19"/>
-      <c r="J86" s="20"/>
-    </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B87" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C87" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D87" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E87" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F87" s="18">
-        <v>78000</v>
-      </c>
-      <c r="G87" s="18">
-        <v>1950000</v>
-      </c>
-      <c r="H87" s="19"/>
-      <c r="I87" s="19"/>
-      <c r="J87" s="20"/>
-    </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B88" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C88" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D88" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E88" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F88" s="18">
-        <v>78000</v>
-      </c>
-      <c r="G88" s="18">
-        <v>1950000</v>
-      </c>
-      <c r="H88" s="19"/>
-      <c r="I88" s="19"/>
-      <c r="J88" s="20"/>
-    </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B89" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C89" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D89" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E89" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F89" s="18">
-        <v>78000</v>
-      </c>
-      <c r="G89" s="18">
-        <v>1950000</v>
-      </c>
-      <c r="H89" s="19"/>
-      <c r="I89" s="19"/>
-      <c r="J89" s="20"/>
-    </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B90" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C90" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D90" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E90" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F90" s="18">
-        <v>78000</v>
-      </c>
-      <c r="G90" s="18">
-        <v>1950000</v>
-      </c>
-      <c r="H90" s="19"/>
-      <c r="I90" s="19"/>
-      <c r="J90" s="20"/>
-    </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B91" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C91" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D91" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E91" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F91" s="18">
-        <v>78000</v>
-      </c>
-      <c r="G91" s="18">
-        <v>1950000</v>
-      </c>
-      <c r="H91" s="19"/>
-      <c r="I91" s="19"/>
-      <c r="J91" s="20"/>
-    </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B92" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C92" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D92" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E92" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F92" s="18">
-        <v>78000</v>
-      </c>
-      <c r="G92" s="18">
-        <v>1950000</v>
-      </c>
-      <c r="H92" s="19"/>
-      <c r="I92" s="19"/>
-      <c r="J92" s="20"/>
-    </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B93" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C93" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D93" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E93" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F93" s="18">
-        <v>78000</v>
-      </c>
-      <c r="G93" s="18">
-        <v>1950000</v>
-      </c>
-      <c r="H93" s="19"/>
-      <c r="I93" s="19"/>
-      <c r="J93" s="20"/>
-    </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B94" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C94" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D94" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E94" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F94" s="18">
-        <v>78000</v>
-      </c>
-      <c r="G94" s="18">
-        <v>1950000</v>
-      </c>
-      <c r="H94" s="19"/>
-      <c r="I94" s="19"/>
-      <c r="J94" s="20"/>
-    </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B95" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C95" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D95" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E95" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F95" s="18">
-        <v>78000</v>
-      </c>
-      <c r="G95" s="18">
-        <v>1950000</v>
-      </c>
-      <c r="H95" s="19"/>
-      <c r="I95" s="19"/>
-      <c r="J95" s="20"/>
-    </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B96" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C96" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D96" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E96" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F96" s="18">
-        <v>78000</v>
-      </c>
-      <c r="G96" s="18">
-        <v>1950000</v>
-      </c>
-      <c r="H96" s="19"/>
-      <c r="I96" s="19"/>
-      <c r="J96" s="20"/>
-    </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B97" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C97" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D97" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E97" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F97" s="18">
-        <v>78000</v>
-      </c>
-      <c r="G97" s="18">
-        <v>1950000</v>
-      </c>
-      <c r="H97" s="19"/>
-      <c r="I97" s="19"/>
-      <c r="J97" s="20"/>
-    </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B98" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C98" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D98" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E98" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F98" s="18">
-        <v>78000</v>
-      </c>
-      <c r="G98" s="18">
-        <v>1950000</v>
-      </c>
-      <c r="H98" s="19"/>
-      <c r="I98" s="19"/>
-      <c r="J98" s="20"/>
-    </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B99" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C99" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D99" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E99" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F99" s="18">
-        <v>78000</v>
-      </c>
-      <c r="G99" s="18">
-        <v>1950000</v>
-      </c>
-      <c r="H99" s="19"/>
-      <c r="I99" s="19"/>
-      <c r="J99" s="20"/>
-    </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B100" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C100" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D100" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E100" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F100" s="18">
-        <v>78000</v>
-      </c>
-      <c r="G100" s="18">
-        <v>1950000</v>
-      </c>
-      <c r="H100" s="19"/>
-      <c r="I100" s="19"/>
-      <c r="J100" s="20"/>
-    </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B101" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C101" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D101" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E101" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F101" s="18">
-        <v>78000</v>
-      </c>
-      <c r="G101" s="18">
-        <v>1950000</v>
-      </c>
-      <c r="H101" s="19"/>
-      <c r="I101" s="19"/>
-      <c r="J101" s="20"/>
-    </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B102" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C102" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D102" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E102" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F102" s="24">
-        <v>78000</v>
-      </c>
-      <c r="G102" s="24">
-        <v>1950000</v>
-      </c>
-      <c r="H102" s="25"/>
-      <c r="I102" s="25"/>
-      <c r="J102" s="26"/>
-    </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B107" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="C107" s="32"/>
-      <c r="H107" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I107" s="1"/>
-      <c r="J107" s="1"/>
-    </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B108" s="32" t="s">
+      <c r="H85" s="25"/>
+      <c r="I85" s="25"/>
+      <c r="J85" s="26"/>
+    </row>
+    <row r="90" spans="2:10">
+      <c r="B90" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C90" s="32"/>
+      <c r="H90" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+    </row>
+    <row r="91" spans="2:10">
+      <c r="B91" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C91" s="32"/>
+      <c r="H91" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C108" s="32"/>
-      <c r="H108" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I108" s="1"/>
-      <c r="J108" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="H108:J108"/>
-    <mergeCell ref="H107:J107"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="H91:J91"/>
+    <mergeCell ref="H90:J90"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9010460727.xlsx
+++ b/Data/EC/NIT-9010460727.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDE79E35-379F-4950-A4A8-648AC5E055CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC9668D9-96C6-4F02-9E33-B814EE5A8BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A16C2D4D-3773-4D89-AC6F-DDD20A78F457}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{99AC3ED4-7009-43A0-9D9E-21E084300AB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -187,7 +187,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,9 +242,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -257,7 +255,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -451,29 +451,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -492,19 +492,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -557,7 +563,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{652D4F49-897D-0798-74DB-C13C12A47144}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5AC1814-BD2C-9154-51F6-1E2AEC21DFEC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -908,80 +914,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5020C28-1028-49C8-8E18-B5E81BFA39E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06CDD912-C297-445A-9503-1A3BCC46C20B}">
   <dimension ref="B2:J91"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-    </row>
-    <row r="3" spans="2:10">
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-    </row>
-    <row r="4" spans="2:10">
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-    </row>
-    <row r="5" spans="2:10">
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-    </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+    </row>
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -991,13 +997,13 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9010460727</v>
       </c>
@@ -1007,13 +1013,13 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
         <v>10560320</v>
       </c>
@@ -1023,8 +1029,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
         <v>39</v>
       </c>
@@ -1043,7 +1049,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1072,7 +1078,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1082,20 +1088,20 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>139200</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="19">
         <v>3480000</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
-    </row>
-    <row r="17" spans="2:10">
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1105,20 +1111,20 @@
       <c r="D17" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>139200</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="19">
         <v>3480000</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
-    </row>
-    <row r="18" spans="2:10">
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1128,20 +1134,20 @@
       <c r="D18" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>139200</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="19">
         <v>3480000</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
-    </row>
-    <row r="19" spans="2:10">
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1151,20 +1157,20 @@
       <c r="D19" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>130000</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="19">
         <v>3250000</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
-    </row>
-    <row r="20" spans="2:10">
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1174,20 +1180,20 @@
       <c r="D20" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>260000</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="19">
         <v>6500000</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
-    </row>
-    <row r="21" spans="2:10">
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1197,20 +1203,20 @@
       <c r="D21" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="19">
         <v>78000</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="19">
         <v>1950000</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
-    </row>
-    <row r="22" spans="2:10">
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1220,20 +1226,20 @@
       <c r="D22" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="19">
         <v>139200</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="19">
         <v>3480000</v>
       </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
-    </row>
-    <row r="23" spans="2:10">
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1243,20 +1249,20 @@
       <c r="D23" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="19">
         <v>130000</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="19">
         <v>3250000</v>
       </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
-    </row>
-    <row r="24" spans="2:10">
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -1266,20 +1272,20 @@
       <c r="D24" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="19">
         <v>260000</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="19">
         <v>6500000</v>
       </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
-    </row>
-    <row r="25" spans="2:10">
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
@@ -1289,20 +1295,20 @@
       <c r="D25" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="19">
         <v>78000</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="19">
         <v>1950000</v>
       </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
-    </row>
-    <row r="26" spans="2:10">
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
@@ -1312,20 +1318,20 @@
       <c r="D26" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="19">
         <v>139200</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="19">
         <v>3480000</v>
       </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
-    </row>
-    <row r="27" spans="2:10">
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
@@ -1335,20 +1341,20 @@
       <c r="D27" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="19">
         <v>130000</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="19">
         <v>3250000</v>
       </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
-    </row>
-    <row r="28" spans="2:10">
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
@@ -1358,20 +1364,20 @@
       <c r="D28" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="19">
         <v>260000</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="19">
         <v>6500000</v>
       </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
-    </row>
-    <row r="29" spans="2:10">
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
@@ -1381,20 +1387,20 @@
       <c r="D29" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="19">
         <v>78000</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="19">
         <v>1950000</v>
       </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
-    </row>
-    <row r="30" spans="2:10">
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
@@ -1404,20 +1410,20 @@
       <c r="D30" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="19">
         <v>139200</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G30" s="19">
         <v>3480000</v>
       </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
-    </row>
-    <row r="31" spans="2:10">
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
@@ -1427,20 +1433,20 @@
       <c r="D31" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F31" s="19">
         <v>130000</v>
       </c>
-      <c r="G31" s="18">
+      <c r="G31" s="19">
         <v>3250000</v>
       </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
-    </row>
-    <row r="32" spans="2:10">
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
@@ -1450,20 +1456,20 @@
       <c r="D32" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="19">
         <v>260000</v>
       </c>
-      <c r="G32" s="18">
+      <c r="G32" s="19">
         <v>6500000</v>
       </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
-    </row>
-    <row r="33" spans="2:10">
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
@@ -1473,20 +1479,20 @@
       <c r="D33" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="19">
         <v>78000</v>
       </c>
-      <c r="G33" s="18">
+      <c r="G33" s="19">
         <v>1950000</v>
       </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
-    </row>
-    <row r="34" spans="2:10">
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
@@ -1496,20 +1502,20 @@
       <c r="D34" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="19">
         <v>139200</v>
       </c>
-      <c r="G34" s="18">
+      <c r="G34" s="19">
         <v>3480000</v>
       </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
-    </row>
-    <row r="35" spans="2:10">
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
@@ -1519,20 +1525,20 @@
       <c r="D35" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="19">
         <v>130000</v>
       </c>
-      <c r="G35" s="18">
+      <c r="G35" s="19">
         <v>3250000</v>
       </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
-    </row>
-    <row r="36" spans="2:10">
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="21"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
@@ -1542,20 +1548,20 @@
       <c r="D36" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="19">
         <v>260000</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="19">
         <v>6500000</v>
       </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
-    </row>
-    <row r="37" spans="2:10">
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="21"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
@@ -1565,20 +1571,20 @@
       <c r="D37" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F37" s="18">
+      <c r="F37" s="19">
         <v>78000</v>
       </c>
-      <c r="G37" s="18">
+      <c r="G37" s="19">
         <v>1950000</v>
       </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
-    </row>
-    <row r="38" spans="2:10">
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="21"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
@@ -1588,20 +1594,20 @@
       <c r="D38" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F38" s="18">
+      <c r="F38" s="19">
         <v>139200</v>
       </c>
-      <c r="G38" s="18">
+      <c r="G38" s="19">
         <v>3480000</v>
       </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
-    </row>
-    <row r="39" spans="2:10">
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="21"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
@@ -1611,20 +1617,20 @@
       <c r="D39" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F39" s="18">
+      <c r="F39" s="19">
         <v>130000</v>
       </c>
-      <c r="G39" s="18">
+      <c r="G39" s="19">
         <v>3250000</v>
       </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
-    </row>
-    <row r="40" spans="2:10">
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="21"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
@@ -1634,20 +1640,20 @@
       <c r="D40" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F40" s="18">
+      <c r="F40" s="19">
         <v>260000</v>
       </c>
-      <c r="G40" s="18">
+      <c r="G40" s="19">
         <v>6500000</v>
       </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
-    </row>
-    <row r="41" spans="2:10">
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="21"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
@@ -1657,20 +1663,20 @@
       <c r="D41" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F41" s="18">
+      <c r="F41" s="19">
         <v>78000</v>
       </c>
-      <c r="G41" s="18">
+      <c r="G41" s="19">
         <v>1950000</v>
       </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
-    </row>
-    <row r="42" spans="2:10">
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="21"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
@@ -1680,20 +1686,20 @@
       <c r="D42" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F42" s="18">
+      <c r="F42" s="19">
         <v>139200</v>
       </c>
-      <c r="G42" s="18">
+      <c r="G42" s="19">
         <v>3480000</v>
       </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
-    </row>
-    <row r="43" spans="2:10">
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="21"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
@@ -1703,20 +1709,20 @@
       <c r="D43" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F43" s="18">
+      <c r="F43" s="19">
         <v>130000</v>
       </c>
-      <c r="G43" s="18">
+      <c r="G43" s="19">
         <v>3250000</v>
       </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
-    </row>
-    <row r="44" spans="2:10">
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="21"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
@@ -1726,20 +1732,20 @@
       <c r="D44" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F44" s="18">
+      <c r="F44" s="19">
         <v>260000</v>
       </c>
-      <c r="G44" s="18">
+      <c r="G44" s="19">
         <v>6500000</v>
       </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
-    </row>
-    <row r="45" spans="2:10">
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="21"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
@@ -1749,20 +1755,20 @@
       <c r="D45" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F45" s="18">
+      <c r="F45" s="19">
         <v>78000</v>
       </c>
-      <c r="G45" s="18">
+      <c r="G45" s="19">
         <v>1950000</v>
       </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20"/>
-    </row>
-    <row r="46" spans="2:10">
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="21"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
@@ -1772,20 +1778,20 @@
       <c r="D46" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F46" s="18">
+      <c r="F46" s="19">
         <v>139200</v>
       </c>
-      <c r="G46" s="18">
+      <c r="G46" s="19">
         <v>3480000</v>
       </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="20"/>
-    </row>
-    <row r="47" spans="2:10">
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="21"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
@@ -1795,20 +1801,20 @@
       <c r="D47" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F47" s="18">
+      <c r="F47" s="19">
         <v>130000</v>
       </c>
-      <c r="G47" s="18">
+      <c r="G47" s="19">
         <v>3250000</v>
       </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20"/>
-    </row>
-    <row r="48" spans="2:10">
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="21"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
@@ -1818,20 +1824,20 @@
       <c r="D48" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F48" s="18">
+      <c r="F48" s="19">
         <v>260000</v>
       </c>
-      <c r="G48" s="18">
+      <c r="G48" s="19">
         <v>6500000</v>
       </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="20"/>
-    </row>
-    <row r="49" spans="2:10">
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="21"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
@@ -1841,20 +1847,20 @@
       <c r="D49" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F49" s="18">
+      <c r="F49" s="19">
         <v>78000</v>
       </c>
-      <c r="G49" s="18">
+      <c r="G49" s="19">
         <v>1950000</v>
       </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20"/>
-    </row>
-    <row r="50" spans="2:10">
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="21"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
@@ -1864,20 +1870,20 @@
       <c r="D50" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F50" s="18">
+      <c r="F50" s="19">
         <v>139200</v>
       </c>
-      <c r="G50" s="18">
+      <c r="G50" s="19">
         <v>3480000</v>
       </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="20"/>
-    </row>
-    <row r="51" spans="2:10">
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="21"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
@@ -1887,20 +1893,20 @@
       <c r="D51" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F51" s="18">
+      <c r="F51" s="19">
         <v>130000</v>
       </c>
-      <c r="G51" s="18">
+      <c r="G51" s="19">
         <v>3250000</v>
       </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="20"/>
-    </row>
-    <row r="52" spans="2:10">
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="21"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
@@ -1910,20 +1916,20 @@
       <c r="D52" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F52" s="18">
+      <c r="F52" s="19">
         <v>260000</v>
       </c>
-      <c r="G52" s="18">
+      <c r="G52" s="19">
         <v>6500000</v>
       </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="20"/>
-    </row>
-    <row r="53" spans="2:10">
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="21"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
@@ -1933,20 +1939,20 @@
       <c r="D53" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F53" s="18">
+      <c r="F53" s="19">
         <v>78000</v>
       </c>
-      <c r="G53" s="18">
+      <c r="G53" s="19">
         <v>1950000</v>
       </c>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="20"/>
-    </row>
-    <row r="54" spans="2:10">
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="21"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
@@ -1956,20 +1962,20 @@
       <c r="D54" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F54" s="18">
+      <c r="F54" s="19">
         <v>139200</v>
       </c>
-      <c r="G54" s="18">
+      <c r="G54" s="19">
         <v>3480000</v>
       </c>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="20"/>
-    </row>
-    <row r="55" spans="2:10">
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="21"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
         <v>8</v>
       </c>
@@ -1979,20 +1985,20 @@
       <c r="D55" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="E55" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F55" s="18">
+      <c r="F55" s="19">
         <v>130000</v>
       </c>
-      <c r="G55" s="18">
+      <c r="G55" s="19">
         <v>3250000</v>
       </c>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="20"/>
-    </row>
-    <row r="56" spans="2:10">
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="21"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
         <v>8</v>
       </c>
@@ -2002,20 +2008,20 @@
       <c r="D56" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F56" s="18">
+      <c r="F56" s="19">
         <v>260000</v>
       </c>
-      <c r="G56" s="18">
+      <c r="G56" s="19">
         <v>6500000</v>
       </c>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="20"/>
-    </row>
-    <row r="57" spans="2:10">
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="21"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
         <v>8</v>
       </c>
@@ -2025,20 +2031,20 @@
       <c r="D57" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F57" s="18">
+      <c r="F57" s="19">
         <v>78000</v>
       </c>
-      <c r="G57" s="18">
+      <c r="G57" s="19">
         <v>1950000</v>
       </c>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="20"/>
-    </row>
-    <row r="58" spans="2:10">
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="21"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
         <v>8</v>
       </c>
@@ -2048,20 +2054,20 @@
       <c r="D58" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="16" t="s">
+      <c r="E58" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F58" s="18">
+      <c r="F58" s="19">
         <v>139200</v>
       </c>
-      <c r="G58" s="18">
+      <c r="G58" s="19">
         <v>3480000</v>
       </c>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="20"/>
-    </row>
-    <row r="59" spans="2:10">
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="21"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
         <v>8</v>
       </c>
@@ -2071,20 +2077,20 @@
       <c r="D59" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="E59" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F59" s="18">
+      <c r="F59" s="19">
         <v>130000</v>
       </c>
-      <c r="G59" s="18">
+      <c r="G59" s="19">
         <v>3250000</v>
       </c>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="20"/>
-    </row>
-    <row r="60" spans="2:10">
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="21"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
         <v>8</v>
       </c>
@@ -2094,20 +2100,20 @@
       <c r="D60" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="E60" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F60" s="18">
+      <c r="F60" s="19">
         <v>260000</v>
       </c>
-      <c r="G60" s="18">
+      <c r="G60" s="19">
         <v>6500000</v>
       </c>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="20"/>
-    </row>
-    <row r="61" spans="2:10">
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="21"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
         <v>8</v>
       </c>
@@ -2117,20 +2123,20 @@
       <c r="D61" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E61" s="16" t="s">
+      <c r="E61" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F61" s="18">
+      <c r="F61" s="19">
         <v>78000</v>
       </c>
-      <c r="G61" s="18">
+      <c r="G61" s="19">
         <v>1950000</v>
       </c>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="20"/>
-    </row>
-    <row r="62" spans="2:10">
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="21"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
         <v>8</v>
       </c>
@@ -2140,20 +2146,20 @@
       <c r="D62" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="16" t="s">
+      <c r="E62" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F62" s="18">
+      <c r="F62" s="19">
         <v>139200</v>
       </c>
-      <c r="G62" s="18">
+      <c r="G62" s="19">
         <v>3480000</v>
       </c>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="20"/>
-    </row>
-    <row r="63" spans="2:10">
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="21"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
         <v>8</v>
       </c>
@@ -2163,20 +2169,20 @@
       <c r="D63" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E63" s="16" t="s">
+      <c r="E63" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F63" s="18">
+      <c r="F63" s="19">
         <v>130000</v>
       </c>
-      <c r="G63" s="18">
+      <c r="G63" s="19">
         <v>3250000</v>
       </c>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="20"/>
-    </row>
-    <row r="64" spans="2:10">
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="21"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
         <v>8</v>
       </c>
@@ -2186,20 +2192,20 @@
       <c r="D64" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E64" s="16" t="s">
+      <c r="E64" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F64" s="18">
+      <c r="F64" s="19">
         <v>260000</v>
       </c>
-      <c r="G64" s="18">
+      <c r="G64" s="19">
         <v>6500000</v>
       </c>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="20"/>
-    </row>
-    <row r="65" spans="2:10">
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="21"/>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
         <v>8</v>
       </c>
@@ -2209,20 +2215,20 @@
       <c r="D65" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E65" s="16" t="s">
+      <c r="E65" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F65" s="18">
+      <c r="F65" s="19">
         <v>78000</v>
       </c>
-      <c r="G65" s="18">
+      <c r="G65" s="19">
         <v>1950000</v>
       </c>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="20"/>
-    </row>
-    <row r="66" spans="2:10">
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="21"/>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
         <v>8</v>
       </c>
@@ -2232,20 +2238,20 @@
       <c r="D66" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="16" t="s">
+      <c r="E66" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F66" s="18">
+      <c r="F66" s="19">
         <v>139200</v>
       </c>
-      <c r="G66" s="18">
+      <c r="G66" s="19">
         <v>3480000</v>
       </c>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="20"/>
-    </row>
-    <row r="67" spans="2:10">
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="21"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
         <v>8</v>
       </c>
@@ -2255,20 +2261,20 @@
       <c r="D67" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E67" s="16" t="s">
+      <c r="E67" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F67" s="18">
+      <c r="F67" s="19">
         <v>130000</v>
       </c>
-      <c r="G67" s="18">
+      <c r="G67" s="19">
         <v>3250000</v>
       </c>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="20"/>
-    </row>
-    <row r="68" spans="2:10">
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="21"/>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
         <v>8</v>
       </c>
@@ -2278,20 +2284,20 @@
       <c r="D68" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E68" s="16" t="s">
+      <c r="E68" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F68" s="18">
+      <c r="F68" s="19">
         <v>260000</v>
       </c>
-      <c r="G68" s="18">
+      <c r="G68" s="19">
         <v>6500000</v>
       </c>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="20"/>
-    </row>
-    <row r="69" spans="2:10">
+      <c r="H68" s="20"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="21"/>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
         <v>8</v>
       </c>
@@ -2301,20 +2307,20 @@
       <c r="D69" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E69" s="16" t="s">
+      <c r="E69" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F69" s="18">
+      <c r="F69" s="19">
         <v>78000</v>
       </c>
-      <c r="G69" s="18">
+      <c r="G69" s="19">
         <v>1950000</v>
       </c>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="20"/>
-    </row>
-    <row r="70" spans="2:10">
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="21"/>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
         <v>8</v>
       </c>
@@ -2324,20 +2330,20 @@
       <c r="D70" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E70" s="16" t="s">
+      <c r="E70" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F70" s="18">
+      <c r="F70" s="19">
         <v>139200</v>
       </c>
-      <c r="G70" s="18">
+      <c r="G70" s="19">
         <v>3480000</v>
       </c>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="20"/>
-    </row>
-    <row r="71" spans="2:10">
+      <c r="H70" s="20"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="21"/>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
         <v>8</v>
       </c>
@@ -2347,20 +2353,20 @@
       <c r="D71" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E71" s="16" t="s">
+      <c r="E71" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F71" s="18">
+      <c r="F71" s="19">
         <v>130000</v>
       </c>
-      <c r="G71" s="18">
+      <c r="G71" s="19">
         <v>3250000</v>
       </c>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="20"/>
-    </row>
-    <row r="72" spans="2:10">
+      <c r="H71" s="20"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="21"/>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72" s="15" t="s">
         <v>8</v>
       </c>
@@ -2370,20 +2376,20 @@
       <c r="D72" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E72" s="16" t="s">
+      <c r="E72" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F72" s="18">
+      <c r="F72" s="19">
         <v>260000</v>
       </c>
-      <c r="G72" s="18">
+      <c r="G72" s="19">
         <v>6500000</v>
       </c>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="20"/>
-    </row>
-    <row r="73" spans="2:10">
+      <c r="H72" s="20"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="21"/>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B73" s="15" t="s">
         <v>8</v>
       </c>
@@ -2393,20 +2399,20 @@
       <c r="D73" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E73" s="16" t="s">
+      <c r="E73" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F73" s="18">
+      <c r="F73" s="19">
         <v>78000</v>
       </c>
-      <c r="G73" s="18">
+      <c r="G73" s="19">
         <v>1950000</v>
       </c>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="20"/>
-    </row>
-    <row r="74" spans="2:10">
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="21"/>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74" s="15" t="s">
         <v>8</v>
       </c>
@@ -2416,20 +2422,20 @@
       <c r="D74" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E74" s="16" t="s">
+      <c r="E74" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F74" s="18">
+      <c r="F74" s="19">
         <v>139200</v>
       </c>
-      <c r="G74" s="18">
+      <c r="G74" s="19">
         <v>3480000</v>
       </c>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="20"/>
-    </row>
-    <row r="75" spans="2:10">
+      <c r="H74" s="20"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="21"/>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B75" s="15" t="s">
         <v>8</v>
       </c>
@@ -2439,20 +2445,20 @@
       <c r="D75" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E75" s="16" t="s">
+      <c r="E75" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F75" s="18">
+      <c r="F75" s="19">
         <v>130000</v>
       </c>
-      <c r="G75" s="18">
+      <c r="G75" s="19">
         <v>3250000</v>
       </c>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="20"/>
-    </row>
-    <row r="76" spans="2:10">
+      <c r="H75" s="20"/>
+      <c r="I75" s="20"/>
+      <c r="J75" s="21"/>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B76" s="15" t="s">
         <v>8</v>
       </c>
@@ -2462,20 +2468,20 @@
       <c r="D76" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E76" s="16" t="s">
+      <c r="E76" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F76" s="18">
+      <c r="F76" s="19">
         <v>260000</v>
       </c>
-      <c r="G76" s="18">
+      <c r="G76" s="19">
         <v>6500000</v>
       </c>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="20"/>
-    </row>
-    <row r="77" spans="2:10">
+      <c r="H76" s="20"/>
+      <c r="I76" s="20"/>
+      <c r="J76" s="21"/>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B77" s="15" t="s">
         <v>8</v>
       </c>
@@ -2485,20 +2491,20 @@
       <c r="D77" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E77" s="16" t="s">
+      <c r="E77" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F77" s="18">
+      <c r="F77" s="19">
         <v>78000</v>
       </c>
-      <c r="G77" s="18">
+      <c r="G77" s="19">
         <v>1950000</v>
       </c>
-      <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="20"/>
-    </row>
-    <row r="78" spans="2:10">
+      <c r="H77" s="20"/>
+      <c r="I77" s="20"/>
+      <c r="J77" s="21"/>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B78" s="15" t="s">
         <v>8</v>
       </c>
@@ -2508,20 +2514,20 @@
       <c r="D78" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E78" s="16" t="s">
+      <c r="E78" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F78" s="18">
+      <c r="F78" s="19">
         <v>139200</v>
       </c>
-      <c r="G78" s="18">
+      <c r="G78" s="19">
         <v>3480000</v>
       </c>
-      <c r="H78" s="19"/>
-      <c r="I78" s="19"/>
-      <c r="J78" s="20"/>
-    </row>
-    <row r="79" spans="2:10">
+      <c r="H78" s="20"/>
+      <c r="I78" s="20"/>
+      <c r="J78" s="21"/>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B79" s="15" t="s">
         <v>8</v>
       </c>
@@ -2531,20 +2537,20 @@
       <c r="D79" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E79" s="16" t="s">
+      <c r="E79" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F79" s="18">
+      <c r="F79" s="19">
         <v>130000</v>
       </c>
-      <c r="G79" s="18">
+      <c r="G79" s="19">
         <v>3250000</v>
       </c>
-      <c r="H79" s="19"/>
-      <c r="I79" s="19"/>
-      <c r="J79" s="20"/>
-    </row>
-    <row r="80" spans="2:10">
+      <c r="H79" s="20"/>
+      <c r="I79" s="20"/>
+      <c r="J79" s="21"/>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B80" s="15" t="s">
         <v>8</v>
       </c>
@@ -2554,20 +2560,20 @@
       <c r="D80" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E80" s="16" t="s">
+      <c r="E80" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F80" s="18">
+      <c r="F80" s="19">
         <v>260000</v>
       </c>
-      <c r="G80" s="18">
+      <c r="G80" s="19">
         <v>6500000</v>
       </c>
-      <c r="H80" s="19"/>
-      <c r="I80" s="19"/>
-      <c r="J80" s="20"/>
-    </row>
-    <row r="81" spans="2:10">
+      <c r="H80" s="20"/>
+      <c r="I80" s="20"/>
+      <c r="J80" s="21"/>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B81" s="15" t="s">
         <v>8</v>
       </c>
@@ -2577,20 +2583,20 @@
       <c r="D81" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E81" s="16" t="s">
+      <c r="E81" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F81" s="18">
+      <c r="F81" s="19">
         <v>78000</v>
       </c>
-      <c r="G81" s="18">
+      <c r="G81" s="19">
         <v>1950000</v>
       </c>
-      <c r="H81" s="19"/>
-      <c r="I81" s="19"/>
-      <c r="J81" s="20"/>
-    </row>
-    <row r="82" spans="2:10">
+      <c r="H81" s="20"/>
+      <c r="I81" s="20"/>
+      <c r="J81" s="21"/>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B82" s="15" t="s">
         <v>8</v>
       </c>
@@ -2600,20 +2606,20 @@
       <c r="D82" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E82" s="16" t="s">
+      <c r="E82" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F82" s="18">
+      <c r="F82" s="19">
         <v>129920</v>
       </c>
-      <c r="G82" s="18">
+      <c r="G82" s="19">
         <v>3480000</v>
       </c>
-      <c r="H82" s="19"/>
-      <c r="I82" s="19"/>
-      <c r="J82" s="20"/>
-    </row>
-    <row r="83" spans="2:10">
+      <c r="H82" s="20"/>
+      <c r="I82" s="20"/>
+      <c r="J82" s="21"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B83" s="15" t="s">
         <v>8</v>
       </c>
@@ -2623,20 +2629,20 @@
       <c r="D83" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E83" s="16" t="s">
+      <c r="E83" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F83" s="18">
+      <c r="F83" s="19">
         <v>121333</v>
       </c>
-      <c r="G83" s="18">
+      <c r="G83" s="19">
         <v>3250000</v>
       </c>
-      <c r="H83" s="19"/>
-      <c r="I83" s="19"/>
-      <c r="J83" s="20"/>
-    </row>
-    <row r="84" spans="2:10">
+      <c r="H83" s="20"/>
+      <c r="I83" s="20"/>
+      <c r="J83" s="21"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B84" s="15" t="s">
         <v>8</v>
       </c>
@@ -2646,58 +2652,58 @@
       <c r="D84" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E84" s="16" t="s">
+      <c r="E84" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F84" s="18">
+      <c r="F84" s="19">
         <v>242667</v>
       </c>
-      <c r="G84" s="18">
+      <c r="G84" s="19">
         <v>6500000</v>
       </c>
-      <c r="H84" s="19"/>
-      <c r="I84" s="19"/>
-      <c r="J84" s="20"/>
-    </row>
-    <row r="85" spans="2:10">
-      <c r="B85" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C85" s="22" t="s">
+      <c r="H84" s="20"/>
+      <c r="I84" s="20"/>
+      <c r="J84" s="21"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B85" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D85" s="23" t="s">
+      <c r="D85" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E85" s="22" t="s">
+      <c r="E85" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F85" s="24">
+      <c r="F85" s="26">
         <v>72800</v>
       </c>
-      <c r="G85" s="24">
+      <c r="G85" s="26">
         <v>1950000</v>
       </c>
-      <c r="H85" s="25"/>
-      <c r="I85" s="25"/>
-      <c r="J85" s="26"/>
-    </row>
-    <row r="90" spans="2:10">
-      <c r="B90" s="32" t="s">
+      <c r="H85" s="27"/>
+      <c r="I85" s="27"/>
+      <c r="J85" s="28"/>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B90" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="C90" s="32"/>
+      <c r="C90" s="34"/>
       <c r="H90" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
     </row>
-    <row r="91" spans="2:10">
-      <c r="B91" s="32" t="s">
+    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B91" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C91" s="32"/>
+      <c r="C91" s="34"/>
       <c r="H91" s="1" t="s">
         <v>46</v>
       </c>
